--- a/formats/excel/SSR/2018/Formats RHS 18.xlsx
+++ b/formats/excel/SSR/2018/Formats RHS 18.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10919935\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547AA2B-7CEA-A84F-9945-04CCC3F39565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -318,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -629,21 +628,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -663,7 +662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -680,7 +679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -700,7 +699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -720,7 +719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -740,7 +739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -760,7 +759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -780,7 +779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -820,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -840,7 +839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -860,7 +859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -880,7 +879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -900,7 +899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -920,7 +919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -940,7 +939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -960,7 +959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -980,7 +979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>44</v>
       </c>
